--- a/trunk/documentation/draft/ci-environment/build-deploy-check-point.xlsx
+++ b/trunk/documentation/draft/ci-environment/build-deploy-check-point.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,14 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimizing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Project 간 의존 관계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,11 +40,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Multi-processing, Race Condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Check Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintain file timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overwrite any locally modified files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server specific configuration: Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long term job isolation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병렬 처리 시 Race Condition 방지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배타적 Job 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장시간 소요 Job 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 직접 수정 파일 덮어 쓰기 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 생성/수정 시간 유지 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직렬/병렬 처리 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +177,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -458,31 +501,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
